--- a/src/main/resources/ExportTemplate/ShipmentControlTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/ShipmentControlTemplate.xlsx
@@ -413,6 +413,9 @@
     <xf numFmtId="167" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="6" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -424,9 +427,6 @@
     </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -712,10 +712,10 @@
   <dimension ref="A1:XFD17466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
+      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2257,38 +2257,38 @@
     <col min="16154" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="25" customFormat="1" ht="75" customHeight="1">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
+    <row r="1" spans="1:16384" s="26" customFormat="1" ht="75" customHeight="1">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
     </row>
     <row r="2" spans="1:16384">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="19" t="s">
         <v>20</v>
       </c>
@@ -2374,10 +2374,10 @@
       <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="12" t="s">

--- a/src/main/resources/ExportTemplate/ShipmentControlTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/ShipmentControlTemplate.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -190,6 +190,21 @@
   </si>
   <si>
     <t>${startDate}</t>
+  </si>
+  <si>
+    <t>${detail.dateRevOrgTax}</t>
+  </si>
+  <si>
+    <t>${detail.dateFinCustom}</t>
+  </si>
+  <si>
+    <t>${detail.dateRevOrgDoc}</t>
+  </si>
+  <si>
+    <t>${detail.dateStartECus}</t>
+  </si>
+  <si>
+    <t>${detail.dateSend}</t>
   </si>
 </sst>
 </file>
@@ -712,10 +727,10 @@
   <dimension ref="A1:XFD17466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
+      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2416,9 +2431,13 @@
       <c r="O5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14" t="s">
+      <c r="P5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="20" t="s">
         <v>39</v>
       </c>
       <c r="S5" s="15" t="s">
@@ -2427,9 +2446,16 @@
       <c r="T5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
+      <c r="U5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="W5" s="14"/>
+      <c r="Y5" s="20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:16384">
       <c r="A6" s="14"/>
